--- a/202004_fuga_agencia.xlsx
+++ b/202004_fuga_agencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\convertidor_xls\convertidos_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B388856B-A972-4FB2-A84A-3C6DD5DA9A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72128B3-FC98-4079-8F0A-1A58314ADA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68BA3C3D-F2A5-4763-A334-6C0236EB1BEB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>LPATTR_PER_RES</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>12136</t>
-  </si>
-  <si>
-    <t>10607655-3</t>
   </si>
   <si>
     <t>Ximena Cortes Rojas</t>
@@ -581,7 +578,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,10 +875,10 @@
         <v>31243</v>
       </c>
       <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="L7" s="12">
         <v>43844</v>
